--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1EF517AE-7A8D-4B3C-AB9B-77D7C4E95DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{3BC24AFD-E0BA-4B6E-AAA7-94A0B64FF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>やったか</t>
     <phoneticPr fontId="1"/>
@@ -560,6 +560,41 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションの途中でモーションのスピードを変えれるようにする。</t>
+    <rPh sb="6" eb="8">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションの途中でモーションが切り替わった場合。そのフレームを保存してそこからブレンドをできるようにする。(イメージ通りにできていたらいい感じになるはず)</t>
+    <rPh sb="6" eb="8">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -568,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +616,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -634,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,7 +726,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9142ABCD-07F8-4F59-B228-849E2FC26272}" diskRevisions="1" revisionId="9" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B13D1341-EFDF-4ABD-ABCF-B8DD0862922F}" diskRevisions="1" revisionId="15" version="7">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -706,6 +753,11 @@
     </sheetIdMap>
   </header>
   <header guid="{9142ABCD-07F8-4F59-B228-849E2FC26272}" dateTime="2024-06-12T11:30:19" maxSheetId="2" userName="2220036" r:id="rId6" minRId="8" maxRId="9">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B13D1341-EFDF-4ABD-ABCF-B8DD0862922F}" dateTime="2024-06-13T09:36:07" maxSheetId="2" userName="2220036" r:id="rId7" minRId="10" maxRId="15">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -842,8 +894,70 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="10" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rfmt sheetId="1" sqref="A7" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="11" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rrc rId="12" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="13" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>モーションの途中でモーションのスピードを変えれるようにする。</t>
+        <rPh sb="6" eb="8">
+          <t>トチュウ</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>カ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="14" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="15" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>モーションの途中でモーションが切り替わった場合。そのフレームを保存してそこからブレンドをできるようにする。(イメージ通りにできていたらいい感じになるはず)</t>
+        <rPh sb="6" eb="8">
+          <t>トチュウ</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>カ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>バアイ</t>
+        </rPh>
+        <rPh sb="31" eb="33">
+          <t>ホゾン</t>
+        </rPh>
+        <rPh sb="58" eb="59">
+          <t>ドオ</t>
+        </rPh>
+        <rPh sb="69" eb="70">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{B13D1341-EFDF-4ABD-ABCF-B8DD0862922F}" name="2220036" id="-575624973" dateTime="2024-06-13T09:33:56"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1189,169 +1303,148 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -1359,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -1367,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -1375,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -1383,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -1391,6 +1484,38 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1402,7 +1527,7 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:B14 A15 A16:B1048576">
+  <conditionalFormatting sqref="A1:B18 A19 A20:B1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>

--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{3BC24AFD-E0BA-4B6E-AAA7-94A0B64FF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1CD8452A-AD52-400B-9408-EE619F25A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>やったか</t>
     <phoneticPr fontId="1"/>
@@ -594,6 +594,38 @@
       <t>ドオ</t>
     </rPh>
     <rPh sb="69" eb="70">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咆哮された時にコントローラー振動するが、ここでカウンターのコントローラー振動はモンハンでどうなっているか確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納刀のさいパーティクルを出していい感じにしたい</t>
+    <rPh sb="0" eb="2">
+      <t>ノウトウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
       <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -726,7 +758,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B13D1341-EFDF-4ABD-ABCF-B8DD0862922F}" diskRevisions="1" revisionId="15" version="7">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{62787B19-6EA1-4F5F-BB3B-2DF69E81A1A0}" diskRevisions="1" revisionId="21" version="9">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -758,6 +790,16 @@
     </sheetIdMap>
   </header>
   <header guid="{B13D1341-EFDF-4ABD-ABCF-B8DD0862922F}" dateTime="2024-06-13T09:36:07" maxSheetId="2" userName="2220036" r:id="rId7" minRId="10" maxRId="15">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{08722ECD-6515-4159-9A45-EB2BA9033F54}" dateTime="2024-06-13T13:40:00" maxSheetId="2" userName="2220036" r:id="rId8" minRId="16" maxRId="17">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{62787B19-6EA1-4F5F-BB3B-2DF69E81A1A0}" dateTime="2024-06-13T13:45:43" maxSheetId="2" userName="2220036" r:id="rId9" minRId="18" maxRId="21">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -954,10 +996,112 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="16" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="17" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>咆哮された時にコントローラー振動するが、ここでカウンターのコントローラー振動はモンハンでどうなっているか確認する</t>
+        <rPh sb="0" eb="2">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="5" eb="6">
+          <t>トキ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="52" eb="54">
+          <t>カクニン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="18" sId="1" ref="A6:XFD6" action="insertRow"/>
+  <rm rId="19" sheetId="1" source="A7:B7" destination="A6:B6" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="A6" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="4" tint="0.79998168889431442"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B6" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="4" tint="0.79998168889431442"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rrc rId="20" sId="1" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="21" sId="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>納刀のさいパーティクルを出していい感じにしたい</t>
+        <rPh sb="0" eb="2">
+          <t>ノウトウ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B13D1341-EFDF-4ABD-ABCF-B8DD0862922F}" name="2220036" id="-575624973" dateTime="2024-06-13T09:33:56"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1277,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1305,170 +1449,156 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -1476,7 +1606,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -1484,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -1492,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -1500,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -1508,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -1516,18 +1646,42 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:B18 A19 A20:B1048576">
+  <conditionalFormatting sqref="A22 A23:B1048576 A9:B21 A1:B7">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>

--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1CD8452A-AD52-400B-9408-EE619F25A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{9E4176C5-586D-4134-A1A2-EDB92B564B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="2220036 - 個人用ビュー" guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="2220036 - 個人用ビュー" guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>やったか</t>
     <phoneticPr fontId="1"/>
@@ -628,6 +629,126 @@
     <rPh sb="17" eb="18">
       <t>カン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートモーションを入れる</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NonBattle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間ノード</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末端ノード</t>
+    <rPh sb="0" eb="2">
+      <t>マッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flinch</t>
+  </si>
+  <si>
+    <t>Walk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Near</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Far</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tackle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Roar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BackStep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlyAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RiseAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KnockBack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FrontAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BackStepRoar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoveRoar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ComboSlam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ComboCharge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TurnAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoveTurn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoveAttack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,7 +756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,8 +781,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,8 +809,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -704,13 +851,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +1010,90 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -758,7 +1123,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{62787B19-6EA1-4F5F-BB3B-2DF69E81A1A0}" diskRevisions="1" revisionId="21" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{80A47A9C-B6A9-496D-8DA0-2AEAFE8889D9}" diskRevisions="1" revisionId="88" version="19">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -804,11 +1169,3746 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{77E91F22-4F6C-422F-8E71-54321C3DBE6C}" dateTime="2024-06-16T21:14:06" maxSheetId="2" userName="2220036" r:id="rId10" minRId="22" maxRId="27">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8036B777-2DBC-4B4C-AEE9-B206FF112B63}" dateTime="2024-06-17T22:38:44" maxSheetId="3" userName="2220036" r:id="rId11" minRId="28" maxRId="56">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{69D932B9-704F-4711-B8FE-60457BA69153}" dateTime="2024-06-17T22:49:29" maxSheetId="3" userName="2220036" r:id="rId12" minRId="57" maxRId="71">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FC8B92A9-5AC5-4367-80B2-07974754107D}" dateTime="2024-06-17T22:51:05" maxSheetId="3" userName="2220036" r:id="rId13" minRId="72" maxRId="75">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A61F10A8-8234-4B62-902C-87EB8B56DB17}" dateTime="2024-06-17T22:52:17" maxSheetId="3" userName="2220036" r:id="rId14" minRId="76">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{173E3333-2ABE-4F18-B349-3AD30F5DD08E}" dateTime="2024-06-17T23:27:04" maxSheetId="3" userName="2220036" r:id="rId15" minRId="77" maxRId="82">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4325CE2B-8CD8-42F6-BA90-A08488B2021E}" dateTime="2024-06-17T23:49:21" maxSheetId="3" userName="2220036" r:id="rId16">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34E934EE-ACB8-4BE5-A2DA-1F3DEF4BCCC1}" dateTime="2024-06-18T10:43:39" maxSheetId="3" userName="2220036" r:id="rId17" minRId="83" maxRId="88">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D50D8639-0245-4A8D-B060-3086DE9B80A2}" dateTime="2024-06-18T10:45:25" maxSheetId="3" userName="2220036" r:id="rId18">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{80A47A9C-B6A9-496D-8DA0-2AEAFE8889D9}" dateTime="2024-06-18T10:57:23" maxSheetId="3" userName="2220036" r:id="rId19">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="22" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rm rId="23" sheetId="1" source="A2:B2" destination="A10:B10" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="A10" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="4" tint="0.79998168889431442"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B10" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="4" tint="0.79998168889431442"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rrc rId="24" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="25" sId="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>ルートモーションを入れる</t>
+        <rPh sb="9" eb="10">
+          <t>イ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="26" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rrc rId="27" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="28" sheetId="2" name="[やることリスト.xlsx]Sheet2" sheetPosition="1"/>
+  <rfmt sheetId="2" sqref="A1:R1048576">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="29" sId="2" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rcc rId="30" sId="2">
+    <nc r="J6" t="inlineStr">
+      <is>
+        <t>Root</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="J6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J8" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J6" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="31" sId="2" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="32" sId="2">
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>Death</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="H9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J7" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H8:L8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H8" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H8:L8" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L8" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H8:L8" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J7" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J7" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I7" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J7" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J6" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H8" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G9" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="33" sId="2">
+    <nc r="H8">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rrc rId="34" sId="2" ref="J1:J1048576" action="insertCol"/>
+  <rfmt sheetId="2" sqref="I7" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J7" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="35" sId="2">
+    <nc r="J9" t="inlineStr">
+      <is>
+        <t>NonBattle</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="2">
+    <nc r="M9" t="inlineStr">
+      <is>
+        <t>Battle</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="M9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L9" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I10" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L10" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L12" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M10" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O12" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J10" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J8" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M8" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M10" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="D2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.749992370372631"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="D2" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="D2" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="37" sId="2">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>中間ノード</t>
+        <rPh sb="0" eb="2">
+          <t>チュウカン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="38" sheetId="2" source="D2" destination="D3" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="D3" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="D4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="39" sId="2">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>末端ノード</t>
+        <rPh sb="0" eb="2">
+          <t>マッタン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="40" sId="2" ref="J1:J1048576" action="insertCol"/>
+  <rrc rId="41" sId="2" ref="J1:J1048576" action="insertCol"/>
+  <rcc rId="42" sId="2" xfDxf="1" dxf="1">
+    <nc r="J9" t="inlineStr">
+      <is>
+        <t>Flinch</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment horizontal="center"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="J9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J9" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J8" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J10" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I10" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K8" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="43" sId="2">
+    <nc r="J8">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="2">
+    <nc r="L8">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="2">
+    <nc r="O8">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rm rId="46" sheetId="2" source="M6:M7" destination="L6:L7" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="L6" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="L7" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rm rId="47" sheetId="2" source="N8:Q12" destination="M8:P12" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="M8" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="2"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M9" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M10" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="L7" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L7" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L7" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="48" sId="2">
+    <nc r="L12" t="inlineStr">
+      <is>
+        <t>Walk</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="2">
+    <nc r="J12" t="inlineStr">
+      <is>
+        <t>Idle</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="J12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J11:L11" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J11:L11" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L10" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rm rId="50" sheetId="2" source="N12:P12" destination="N11:P11" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="N11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="51" sId="2">
+    <nc r="N12" t="inlineStr">
+      <is>
+        <t>Shout</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="2">
+    <nc r="P12" t="inlineStr">
+      <is>
+        <t>Near</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="2">
+    <nc r="R12" t="inlineStr">
+      <is>
+        <t>Far</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="N11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R11" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N11:R11" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N11:R11" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N10" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="54" sId="2">
+    <nc r="N11">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="2">
+    <nc r="P11">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="2">
+    <nc r="R11">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="N13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P13" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R13" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="57" sId="2" eol="1" ref="A15:XFD15" action="insertRow"/>
+  <rcc rId="58" sId="2">
+    <nc r="R15" t="inlineStr">
+      <is>
+        <t>Tackle</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="R15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rm rId="59" sheetId="2" source="P11:R15" destination="S11:U15" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="S11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="S12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="S13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="S14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="S15" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="T15" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="U15" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="P11:R11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11:R11" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R11" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11:R11" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rm rId="60" sheetId="2" source="R11:S14" destination="P11:Q14" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="P11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="medium">
+            <color indexed="64"/>
+          </left>
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="R11:S11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="61" sId="2">
+    <nc r="N15" t="inlineStr">
+      <is>
+        <t>Roar</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="N15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N15" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N13:N14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N13" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N13:N14" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rm rId="62" sheetId="2" source="Q10:Q14" destination="R10:R14" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="R10" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="Q11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P14:S14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="63" sId="2">
+    <nc r="P15" t="inlineStr">
+      <is>
+        <t>BackStep</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="P15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rm rId="64" sheetId="2" source="P14:S15" destination="O20:R21" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="O20" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P20" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q20" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R20" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O21" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P21" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q21" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R21" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rm rId="65" sheetId="2" source="Q11:S13" destination="O11:Q13" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="O11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="P13:P17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rm rId="66" sheetId="2" source="O20:R21" destination="N18:Q19" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="N18" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O18" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P18" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q18" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="N19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rm rId="67" sheetId="2" source="R11:V15" destination="Q11:U15" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="Q11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q15" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rm rId="68" sheetId="2" source="S11:T15" destination="R11:S15" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="R11" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R15" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rm rId="69" sheetId="2" source="N17:Q19" destination="N16:Q18" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="N16" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O16" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P16" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q16" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="O11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O11:R11" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R11" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O11:R11" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P13:P16" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P13" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P13:P16" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P16" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N17:Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N17:Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N18" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="70" sId="2">
+    <nc r="P18" t="inlineStr">
+      <is>
+        <t>FlyAttack</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="P18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rm rId="71" sheetId="2" source="S11:S15" destination="R11:R15" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="R11" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="3" tint="0.89999084444715716"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+          <top style="medium">
+            <color indexed="64"/>
+          </top>
+          <bottom style="medium">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R12" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R13" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R14" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="R15" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="S14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="U14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="V14" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T13" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R13:R15" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R13" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R13:R15" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R15" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R14:V14" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="V14" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R14:V14" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P16" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R13" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="R12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P11" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N11" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N12" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P18" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="P17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="72" sId="2">
+    <nc r="T15" t="inlineStr">
+      <is>
+        <t>RiseAttack</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="T15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="T15" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="73" sId="2" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="E1:E1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="74" sId="2" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="E1:E1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="75" sId="2" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="E1:E1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="E9" start="0" length="0">
+      <dxf>
+        <border outline="0">
+          <right style="medium">
+            <color indexed="64"/>
+          </right>
+        </border>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="76" sId="2" xfDxf="1" dxf="1">
+    <nc r="O18" t="inlineStr">
+      <is>
+        <t>KnockBack</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment horizontal="center"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="2" sqref="O18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O18" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="77" sId="2">
+    <oc r="O18" t="inlineStr">
+      <is>
+        <t>KnockBack</t>
+      </is>
+    </oc>
+    <nc r="O18" t="inlineStr">
+      <is>
+        <t>KnockBack</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="78" sheetId="2" source="K17:O18" destination="I17:M18" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="I17" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="J17" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="I18" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="J18" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="79" sId="2">
+    <nc r="O18" t="inlineStr">
+      <is>
+        <t>Slam</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="O18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="80" sId="2">
+    <nc r="Q18" t="inlineStr">
+      <is>
+        <t>FrontAttack</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="Q18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q18" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M17:Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M17:Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O18" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="81" sId="2">
+    <nc r="I15" t="inlineStr">
+      <is>
+        <t>BackStepRoar</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="I15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I14:J14" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I14:J14" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I15" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="82" sId="2">
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>MoveRoar</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="G14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G14:H14" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G14:H14" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G15" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G14:J14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="N17:Q17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="G14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="H14" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I14" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J14" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M16" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="M17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="J17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q14" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O14" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q13" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="M17" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="83" sheetId="2" source="I17:Q18" destination="I18:Q19" sourceSheetId="2">
+    <rfmt sheetId="2" sqref="I19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="J19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="K19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="L19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="M19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="N19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="O19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="P19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="2" sqref="Q19" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="top"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="2" sqref="M17" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="84" sId="2">
+    <nc r="I17" t="inlineStr">
+      <is>
+        <t>ComboSlam</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="I17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="85" sId="2">
+    <nc r="K17" t="inlineStr">
+      <is>
+        <t>ComboCharge</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="K17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="K17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="86" sId="2">
+    <nc r="O17" t="inlineStr">
+      <is>
+        <t>TurnAttack</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="2">
+    <nc r="Q13" t="inlineStr">
+      <is>
+        <t>MoveTurn</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="O17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="Q13" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="O17" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="88" sId="2">
+    <nc r="S13" t="inlineStr">
+      <is>
+        <t>MoveAttack</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="R1:S1048576">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="S13" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1421,10 +5521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1444,193 +5544,166 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -1638,7 +5711,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -1646,7 +5719,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1654,7 +5727,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -1662,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -1670,22 +5743,266 @@
         <v>9</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A22 A23:B1048576 A9:B21 A1:B7">
+  <conditionalFormatting sqref="A1:B1 A6:B11 A13:B25 A26 A27:B1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8F8ED4-55A2-4E65-B40C-750F5308C5E3}">
+  <dimension ref="A3:S19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="6.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="6" customWidth="1"/>
+    <col min="5" max="19" width="12.625" style="6" customWidth="1"/>
+    <col min="20" max="23" width="12.625" customWidth="1"/>
+    <col min="24" max="24" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D3" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="23"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="31">
+        <v>1</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="Q13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="M14" s="21"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="O15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="O17" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
+      <selection activeCell="H25" sqref="H25"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{9E4176C5-586D-4134-A1A2-EDB92B564B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EAA16A68-A2EA-4AF3-B57B-FC339F87EA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AI" sheetId="2" r:id="rId2"/>
+    <sheet name="TODO List" sheetId="1" r:id="rId1"/>
+    <sheet name="Dragon AI" sheetId="2" r:id="rId2"/>
+    <sheet name="Player AI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="2220036 - 個人用ビュー" guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="2220036 - 個人用ビュー" guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>やったか</t>
     <phoneticPr fontId="1"/>
@@ -77,82 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>効果音を付ける</t>
-    <rPh sb="0" eb="3">
-      <t>コウカオン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージからキャラクターがはみ出さないようにoffsetを作って制御する</t>
-    <rPh sb="15" eb="16">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵のAIをもっと賢くする</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カシコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自機の移動処理の中で歩きと走りを切り替えることが出来るが、見た目が不自然なため使用するか考える</t>
-    <rPh sb="0" eb="2">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>イドウショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>フシゼン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -164,29 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルをどのような構図にするか考える</t>
-    <rPh sb="10" eb="12">
-      <t>コウズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI全般考えて作る。</t>
-    <rPh sb="2" eb="4">
-      <t>ゼンパン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ディファードレンダリングをする</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,38 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディファードレンダリング時に半透明描画のものを別途描画したいためそれ用の関数をBaseSceneに作る</t>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>ハントウメイビョウガ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>ベットビョウガ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームの面白い部分をつくる</t>
-    <rPh sb="4" eb="6">
-      <t>オモシロ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LookAt処理を作る</t>
     <rPh sb="6" eb="8">
       <t>ショリ</t>
@@ -319,13 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディファードレンダリングでIBLのskyBox適用する</t>
-    <rPh sb="23" eb="25">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パーティクルを半透明描画するために位置情報で距離判定を取って並び替える</t>
     <rPh sb="7" eb="10">
       <t>ハントウメイ</t>
@@ -351,31 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>たたきつけ攻撃の際、尻尾の押し出し判定を無効化する</t>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シッポ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ムコウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ディファードレンダリングをした後にポストプロセスを実行すると白飛びしているからそこをどうにかしたい</t>
     <rPh sb="15" eb="16">
       <t>アト</t>
@@ -396,13 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>skyMapを実装する</t>
-    <rPh sb="7" eb="9">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ディファードレンダリング後奥行を判定できるようにする</t>
     <rPh sb="12" eb="13">
       <t>ノチ</t>
@@ -416,222 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>systemManagerの作成</t>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>systemManagerの中で各種設定項目をいじれるようにする</t>
-    <rPh sb="14" eb="15">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>セッテイコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンター処理の基礎を作る</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンターの条件とかの処理を作る</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラジアルブラー用のピクセルシェーダーを作って、使うときだけ設定するようにする。</t>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>咆哮の処理を作る</t>
-    <rPh sb="0" eb="2">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>咆哮のSEを入れる</t>
-    <rPh sb="0" eb="2">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラー振動更新関数の部分を色々いじっていい感じにする。</t>
-    <rPh sb="7" eb="9">
-      <t>シンドウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>コウシンカンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常攻撃の時にもカウンターの受付を行う。</t>
-    <rPh sb="0" eb="4">
-      <t>ツウジョウコウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ウケツケ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モンハンで先行入力はどうしているのか確認する</t>
-    <rPh sb="5" eb="9">
-      <t>センコウニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常攻撃時も少し前に踏み込むようにする</t>
-    <rPh sb="0" eb="5">
-      <t>ツウジョウコウゲキジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーションの途中でモーションのスピードを変えれるようにする。</t>
-    <rPh sb="6" eb="8">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーションの途中でモーションが切り替わった場合。そのフレームを保存してそこからブレンドをできるようにする。(イメージ通りにできていたらいい感じになるはず)</t>
-    <rPh sb="6" eb="8">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ドオ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>咆哮された時にコントローラー振動するが、ここでカウンターのコントローラー振動はモンハンでどうなっているか確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シンドウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シンドウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>納刀のさいパーティクルを出していい感じにしたい</t>
-    <rPh sb="0" eb="2">
-      <t>ノウトウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルートモーションを入れる</t>
     <rPh sb="9" eb="10">
       <t>イ</t>
@@ -749,6 +364,351 @@
   </si>
   <si>
     <t>MoveAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンター攻撃を作る</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yボタンのコンボ攻撃を作る</t>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bボタンのコンボ攻撃を作る</t>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避を方向入力に沿ったモーションを再生する。</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ホウコウニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避時の無敵時間を作る。</t>
+    <rPh sb="0" eb="3">
+      <t>カイヒジ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ムテキジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの突進攻撃を作る</t>
+    <rPh sb="5" eb="9">
+      <t>トッシンコウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの上昇攻撃を作る</t>
+    <rPh sb="5" eb="9">
+      <t>ジョウショウコウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの空中からたたきつけ攻撃を作る</t>
+    <rPh sb="5" eb="7">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの回転攻撃を作る</t>
+    <rPh sb="5" eb="9">
+      <t>カイテンコウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンのコンボ貯め攻撃を作る</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの吹き飛ばし攻撃を作る</t>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの咆哮を作る</t>
+    <rPh sb="5" eb="7">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの移動しながら咆哮する処理を作る</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンのバックステップして咆哮する処理を作る</t>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの前方向に攻撃する処理を作る</t>
+    <rPh sb="5" eb="8">
+      <t>マエホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの待機をつくる。歩かせたりいい感じにする</t>
+    <rPh sb="5" eb="7">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの死亡処理を作る</t>
+    <rPh sb="5" eb="7">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの怯みを作る</t>
+    <rPh sb="5" eb="6">
+      <t>ヒル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの怯みの中での内訳として、大きいダメージを食らった時にはクリティカルになるようにする</t>
+    <rPh sb="5" eb="6">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各攻撃のいいタイミングでコントローラー振動を付ける</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃時に少し前に踏み込むようにする。できれば敵の方向に踏み込みたい</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラー振動の関数の内部をいろいろいじってみていい感じにしたい</t>
+    <rPh sb="7" eb="9">
+      <t>シンドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>咆哮じのみラジアルブラーのピクセルシェーダを使うようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの構図</t>
+    <rPh sb="5" eb="7">
+      <t>コウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SystemManagerの作成</t>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SkyMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージからキャラクターがはみ出さないようにoffsetをつかって制御する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1123,7 +1083,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{80A47A9C-B6A9-496D-8DA0-2AEAFE8889D9}" diskRevisions="1" revisionId="88" version="19">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{06F76660-3482-48CB-AAA5-FBDE4EAA43B4}" diskRevisions="1" revisionId="168" version="24">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1228,6 +1188,37 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{2F0A2E55-8684-48E8-A484-2614A36E92A9}" dateTime="2024-06-19T09:32:11" maxSheetId="3" userName="2220036" r:id="rId20" minRId="89" maxRId="101">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6816BCE-71A6-4304-9348-C8A732B05851}" dateTime="2024-06-19T12:12:10" maxSheetId="3" userName="2220036" r:id="rId21" minRId="102" maxRId="128">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4DA0E1AB-2D1E-4EEC-9D60-F75632D76A85}" dateTime="2024-06-19T12:17:04" maxSheetId="3" userName="2220036" r:id="rId22" minRId="129" maxRId="164">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F7F2659D-7C26-49D6-B5D3-4776AE859014}" dateTime="2024-06-19T12:17:15" maxSheetId="3" userName="2220036" r:id="rId23" minRId="165">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{06F76660-3482-48CB-AAA5-FBDE4EAA43B4}" dateTime="2024-06-19T12:17:44" maxSheetId="4" userName="2220036" r:id="rId24" minRId="166" maxRId="168">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -4924,20 +4915,574 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="2" sId="1">
-    <oc r="C8" t="inlineStr">
-      <is>
-        <t>kottikarakaku</t>
+  <rrc rId="89" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rrc rId="90" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="91" sId="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>LookAt処理を作る</t>
+        <rPh sb="6" eb="8">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="9" eb="10">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="92" sId="1" eol="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="93" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>カウンター攻撃を作る</t>
+        <rPh sb="5" eb="7">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="94" sId="1" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rrc rId="95" sId="1" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rcc rId="96" sId="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Yボタンのコンボ攻撃を作る</t>
+        <rPh sb="8" eb="10">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="11" eb="12">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>Bボタンのコンボ攻撃を作る</t>
+        <rPh sb="8" eb="10">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="11" eb="12">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="98" sId="1" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="99" sId="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>回避を方向入力に沿ったモーションを再生する。</t>
+        <rPh sb="0" eb="2">
+          <t>カイヒ</t>
+        </rPh>
+        <rPh sb="3" eb="7">
+          <t>ホウコウニュウリョク</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>ソ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>サイセイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="100" sId="1" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="101" sId="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>回避時の無敵時間を作る。</t>
+        <rPh sb="0" eb="3">
+          <t>カイヒジ</t>
+        </rPh>
+        <rPh sb="4" eb="8">
+          <t>ムテキジカン</t>
+        </rPh>
+        <rPh sb="9" eb="10">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="102" sId="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="103" sId="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>ドラゴンの突進攻撃を作る</t>
+        <rPh sb="5" eb="9">
+          <t>トッシンコウゲキ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>ドラゴンの上昇攻撃を作る</t>
+        <rPh sb="5" eb="9">
+          <t>ジョウショウコウゲキ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="105" sId="1" eol="1" ref="A12:XFD12" action="insertRow"/>
+  <rcc rId="106" sId="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>ドラゴンの空中からたたきつけ攻撃を作る</t>
+        <rPh sb="5" eb="7">
+          <t>クウチュウ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="107" sId="1" eol="1" ref="A13:XFD13" action="insertRow"/>
+  <rcc rId="108" sId="1">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>ドラゴンの回転攻撃を作る</t>
+        <rPh sb="5" eb="9">
+          <t>カイテンコウゲキ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="109" sId="1" eol="1" ref="A14:XFD14" action="insertRow"/>
+  <rcc rId="110" sId="1">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>ドラゴンのコンボ貯め攻撃を作る</t>
+        <rPh sb="8" eb="9">
+          <t>タ</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="13" eb="14">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="111" sId="1" eol="1" ref="A15:XFD15" action="insertRow"/>
+  <rcc rId="112" sId="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>ドラゴンの吹き飛ばし攻撃を作る</t>
+        <rPh sb="5" eb="6">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="7" eb="8">
+          <t>ト</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="13" eb="14">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="113" sId="1" eol="1" ref="A16:XFD16" action="insertRow"/>
+  <rcc rId="114" sId="1">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>ドラゴンの咆哮を作る</t>
+        <rPh sb="5" eb="7">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="115" sId="1" eol="1" ref="A17:XFD17" action="insertRow"/>
+  <rcc rId="116" sId="1">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>ドラゴンの移動しながら咆哮する処理を作る</t>
+        <rPh sb="5" eb="7">
+          <t>イドウ</t>
+        </rPh>
+        <rPh sb="11" eb="13">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="15" eb="17">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="18" eb="19">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="117" sId="1" eol="1" ref="A18:XFD18" action="insertRow"/>
+  <rcc rId="118" sId="1">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>ドラゴンのバックステップして咆哮する処理を作る</t>
+        <rPh sb="14" eb="16">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="21" eb="22">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="119" sId="1" eol="1" ref="A19:XFD19" action="insertRow"/>
+  <rcc rId="120" sId="1">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>ドラゴンの前方向に攻撃する処理を作る</t>
+        <rPh sb="5" eb="8">
+          <t>マエホウコウ</t>
+        </rPh>
+        <rPh sb="9" eb="11">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="16" eb="17">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="121" sId="1" eol="1" ref="A20:XFD20" action="insertRow"/>
+  <rrc rId="122" sId="1" eol="1" ref="A21:XFD21" action="insertRow"/>
+  <rcc rId="123" sId="1">
+    <nc r="B21" t="inlineStr">
+      <is>
+        <t>ドラゴンの待機をつくる。歩かせたりいい感じにする</t>
+        <rPh sb="5" eb="7">
+          <t>タイキ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>アル</t>
+        </rPh>
+        <rPh sb="19" eb="20">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="124" sId="1">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>ドラゴンの死亡処理を作る</t>
+        <rPh sb="5" eb="7">
+          <t>シボウ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="125" sId="1" eol="1" ref="A22:XFD22" action="insertRow"/>
+  <rcc rId="126" sId="1">
+    <nc r="B22" t="inlineStr">
+      <is>
+        <t>ドラゴンの怯みを作る</t>
+        <rPh sb="5" eb="6">
+          <t>ヒル</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="127" sId="1" eol="1" ref="A23:XFD23" action="insertRow"/>
+  <rcc rId="128" sId="1">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>ドラゴンの怯みの中での内訳として、大きいダメージを食らった時にはクリティカルになるようにする</t>
+        <rPh sb="5" eb="6">
+          <t>ヒル</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>ナカ</t>
+        </rPh>
+        <rPh sb="11" eb="13">
+          <t>ウチワケ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>オオ</t>
+        </rPh>
+        <rPh sb="25" eb="26">
+          <t>ク</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>トキ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="129" sId="1">
+    <oc r="B31" t="inlineStr">
+      <is>
+        <t>納刀のさいパーティクルを出していい感じにしたい</t>
+        <rPh sb="0" eb="2">
+          <t>ノウトウ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>カン</t>
+        </rPh>
         <phoneticPr fontId="0"/>
       </is>
     </oc>
-    <nc r="C8"/>
-  </rcc>
-  <rrc rId="3" sId="1" ref="A4:XFD4" action="insertRow"/>
-  <rcc rId="4" sId="1">
-    <nc r="B4" t="inlineStr">
+    <nc r="B31"/>
+  </rcc>
+  <rcc rId="130" sId="1">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>各攻撃のいいタイミングでコントローラー振動を付ける</t>
+        <rPh sb="0" eb="3">
+          <t>カクコウゲキ</t>
+        </rPh>
+        <rPh sb="19" eb="21">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="22" eb="23">
+          <t>ツ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="1">
+    <oc r="B29" t="inlineStr">
+      <is>
+        <t>モーションの途中でモーションが切り替わった場合。そのフレームを保存してそこからブレンドをできるようにする。(イメージ通りにできていたらいい感じになるはず)</t>
+        <rPh sb="6" eb="8">
+          <t>トチュウ</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>カ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>バアイ</t>
+        </rPh>
+        <rPh sb="31" eb="33">
+          <t>ホゾン</t>
+        </rPh>
+        <rPh sb="58" eb="59">
+          <t>ドオ</t>
+        </rPh>
+        <rPh sb="69" eb="70">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B29"/>
+  </rcc>
+  <rcc rId="132" sId="1">
+    <oc r="B33" t="inlineStr">
+      <is>
+        <t>カウンターの条件とかの処理を作る</t>
+        <rPh sb="6" eb="8">
+          <t>ジョウケン</t>
+        </rPh>
+        <rPh sb="11" eb="13">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="14" eb="15">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B33"/>
+  </rcc>
+  <rrc rId="133" sId="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="134" sId="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>攻撃時に少し前に踏み込むようにする。できれば敵の方向に踏み込みたい</t>
+        <rPh sb="0" eb="3">
+          <t>コウゲキジ</t>
+        </rPh>
+        <rPh sb="4" eb="5">
+          <t>スコ</t>
+        </rPh>
+        <rPh sb="6" eb="7">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>コ</t>
+        </rPh>
+        <rPh sb="22" eb="23">
+          <t>テキ</t>
+        </rPh>
+        <rPh sb="24" eb="26">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="27" eb="28">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>コ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="1">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>BGM</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="1">
+    <oc r="B29" t="inlineStr">
+      <is>
+        <t>咆哮された時にコントローラー振動するが、ここでカウンターのコントローラー振動はモンハンでどうなっているか確認する</t>
+        <rPh sb="0" eb="2">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="5" eb="6">
+          <t>トキ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="52" eb="54">
+          <t>カクニン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>SE</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="1">
+    <oc r="B36" t="inlineStr">
+      <is>
+        <t>咆哮のSEを入れる</t>
+        <rPh sb="0" eb="2">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="6" eb="7">
+          <t>イ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B36"/>
+  </rcc>
+  <rcc rId="138" sId="1">
+    <oc r="B31" t="inlineStr">
+      <is>
+        <t>モーションの途中でモーションのスピードを変えれるようにする。</t>
+        <rPh sb="6" eb="8">
+          <t>トチュウ</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>カ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B31" t="inlineStr">
+      <is>
+        <t>コントローラー振動の関数の内部をいろいろいじってみていい感じにしたい</t>
+        <rPh sb="7" eb="9">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>カンスウ</t>
+        </rPh>
+        <rPh sb="13" eb="15">
+          <t>ナイブ</t>
+        </rPh>
+        <rPh sb="28" eb="29">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="1">
+    <oc r="B38" t="inlineStr">
       <is>
         <t>コントローラー振動更新関数の部分を色々いじっていい感じにする。</t>
         <rPh sb="7" eb="9">
@@ -4957,16 +5502,99 @@
         </rPh>
         <phoneticPr fontId="0"/>
       </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="5" sId="1" ref="A4:XFD4" action="insertRow"/>
-  <rcc rId="6" sId="1">
-    <nc r="B4" t="inlineStr">
+    </oc>
+    <nc r="B38"/>
+  </rcc>
+  <rcc rId="140" sId="1">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>咆哮じのみラジアルブラーのピクセルシェーダを使うようにする</t>
+        <rPh sb="0" eb="2">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="22" eb="23">
+          <t>ツカ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="1">
+    <oc r="B40" t="inlineStr">
+      <is>
+        <t>ゲームの面白い部分をつくる</t>
+        <rPh sb="4" eb="6">
+          <t>オモシロ</t>
+        </rPh>
+        <rPh sb="7" eb="9">
+          <t>ブブン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B40"/>
+  </rcc>
+  <rcc rId="142" sId="1">
+    <oc r="B42" t="inlineStr">
+      <is>
+        <t>たたきつけ攻撃の際、尻尾の押し出し判定を無効化する</t>
+        <rPh sb="5" eb="7">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>サイ</t>
+        </rPh>
+        <rPh sb="10" eb="12">
+          <t>シッポ</t>
+        </rPh>
+        <rPh sb="13" eb="14">
+          <t>オ</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>ハンテイ</t>
+        </rPh>
+        <rPh sb="20" eb="23">
+          <t>ムコウカ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B42"/>
+  </rcc>
+  <rcc rId="143" sId="1">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>通常攻撃時も少し前に踏み込むようにする</t>
+        <rPh sb="0" eb="5">
+          <t>ツウジョウコウゲキジ</t>
+        </rPh>
+        <rPh sb="6" eb="7">
+          <t>スコ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>コ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>UI</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="1">
+    <oc r="B37" t="inlineStr">
       <is>
         <t>通常攻撃の時にもカウンターの受付を行う。</t>
         <rPh sb="0" eb="4">
@@ -4983,153 +5611,390 @@
         </rPh>
         <phoneticPr fontId="0"/>
       </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="7" sId="1">
-    <nc r="C4" t="inlineStr">
-      <is>
-        <t>モンハンで先行入力はどうしているのか確認する</t>
-        <rPh sb="5" eb="9">
-          <t>センコウニュウリョク</t>
-        </rPh>
-        <rPh sb="18" eb="20">
-          <t>カクニン</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="8" sId="1" ref="A3:XFD3" action="insertRow"/>
-  <rcc rId="9" sId="1">
-    <nc r="B3" t="inlineStr">
-      <is>
-        <t>通常攻撃時も少し前に踏み込むようにする</t>
-        <rPh sb="0" eb="5">
-          <t>ツウジョウコウゲキジ</t>
-        </rPh>
-        <rPh sb="6" eb="7">
-          <t>スコ</t>
+    </oc>
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>タイトルの構図</t>
+        <rPh sb="5" eb="7">
+          <t>コウズ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="1">
+    <oc r="B44" t="inlineStr">
+      <is>
+        <t>タイトルをどのような構図にするか考える</t>
+        <rPh sb="10" eb="12">
+          <t>コウズ</t>
+        </rPh>
+        <rPh sb="16" eb="17">
+          <t>カンガ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B44"/>
+  </rcc>
+  <rcc rId="146" sId="1">
+    <oc r="B45" t="inlineStr">
+      <is>
+        <t>LookAt処理を作る</t>
+        <rPh sb="6" eb="8">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="9" eb="10">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B45"/>
+  </rcc>
+  <rcc rId="147" sId="1">
+    <oc r="B39" t="inlineStr">
+      <is>
+        <t>ラジアルブラー用のピクセルシェーダーを作って、使うときだけ設定するようにする。</t>
+        <rPh sb="7" eb="8">
+          <t>ヨウ</t>
+        </rPh>
+        <rPh sb="19" eb="20">
+          <t>ツク</t>
+        </rPh>
+        <rPh sb="23" eb="24">
+          <t>ツカ</t>
+        </rPh>
+        <rPh sb="29" eb="31">
+          <t>セッテイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B39" t="inlineStr">
+      <is>
+        <t>SystemManagerの作成</t>
+        <rPh sb="14" eb="16">
+          <t>サクセイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="1">
+    <oc r="B46" t="inlineStr">
+      <is>
+        <t>systemManagerの作成</t>
+        <rPh sb="14" eb="16">
+          <t>サクセイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B46"/>
+  </rcc>
+  <rcc rId="149" sId="1">
+    <oc r="B47" t="inlineStr">
+      <is>
+        <t>systemManagerの中で各種設定項目をいじれるようにする</t>
+        <rPh sb="14" eb="15">
+          <t>ナカ</t>
+        </rPh>
+        <rPh sb="16" eb="18">
+          <t>カクシュ</t>
+        </rPh>
+        <rPh sb="18" eb="22">
+          <t>セッテイコウモク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B47"/>
+  </rcc>
+  <rcc rId="150" sId="1">
+    <oc r="B41" t="inlineStr">
+      <is>
+        <t>敵のAIをもっと賢くする</t>
+        <rPh sb="0" eb="1">
+          <t>テキ</t>
         </rPh>
         <rPh sb="8" eb="9">
-          <t>マエ</t>
+          <t>カシコ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>ゲームループを作る</t>
+        <rPh sb="7" eb="8">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="1">
+    <oc r="B48" t="inlineStr">
+      <is>
+        <t>ゲームループを作る</t>
+        <rPh sb="7" eb="8">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B48"/>
+  </rcc>
+  <rcc rId="152" sId="1">
+    <oc r="B51" t="inlineStr">
+      <is>
+        <t>効果音を付ける</t>
+        <rPh sb="0" eb="3">
+          <t>コウカオン</t>
+        </rPh>
+        <rPh sb="4" eb="5">
+          <t>ツ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B51"/>
+  </rcc>
+  <rcc rId="153" sId="1">
+    <oc r="B52" t="inlineStr">
+      <is>
+        <t>自機の移動処理の中で歩きと走りを切り替えることが出来るが、見た目が不自然なため使用するか考える</t>
+        <rPh sb="0" eb="2">
+          <t>ジキ</t>
+        </rPh>
+        <rPh sb="3" eb="7">
+          <t>イドウショリ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>ナカ</t>
         </rPh>
         <rPh sb="10" eb="11">
-          <t>フ</t>
-        </rPh>
+          <t>アル</t>
+        </rPh>
+        <rPh sb="13" eb="14">
+          <t>ハシ</t>
+        </rPh>
+        <rPh sb="16" eb="17">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="18" eb="19">
+          <t>カ</t>
+        </rPh>
+        <rPh sb="24" eb="26">
+          <t>デキ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>ミ</t>
+        </rPh>
+        <rPh sb="31" eb="32">
+          <t>メ</t>
+        </rPh>
+        <rPh sb="33" eb="36">
+          <t>フシゼン</t>
+        </rPh>
+        <rPh sb="39" eb="41">
+          <t>シヨウ</t>
+        </rPh>
+        <rPh sb="44" eb="45">
+          <t>カンガ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B52"/>
+  </rcc>
+  <rcc rId="154" sId="1">
+    <oc r="B57" t="inlineStr">
+      <is>
+        <t>ディファードレンダリングでIBLのskyBox適用する</t>
+        <rPh sb="23" eb="25">
+          <t>テキヨウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B57"/>
+  </rcc>
+  <rcc rId="155" sId="1">
+    <oc r="B60" t="inlineStr">
+      <is>
+        <t>ディファードレンダリング時に半透明描画のものを別途描画したいためそれ用の関数をBaseSceneに作る</t>
         <rPh sb="12" eb="13">
-          <t>コ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="10" sId="1" ref="A3:XFD3" action="insertRow"/>
-  <rfmt sheetId="1" sqref="A7" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-        <family val="3"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="11" sId="1" ref="A3:XFD3" action="insertRow"/>
-  <rrc rId="12" sId="1" ref="A4:XFD4" action="insertRow"/>
-  <rcc rId="13" sId="1">
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>モーションの途中でモーションのスピードを変えれるようにする。</t>
-        <rPh sb="6" eb="8">
-          <t>トチュウ</t>
-        </rPh>
-        <rPh sb="20" eb="21">
-          <t>カ</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="14" sId="1" ref="A4:XFD4" action="insertRow"/>
-  <rcc rId="15" sId="1">
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>モーションの途中でモーションが切り替わった場合。そのフレームを保存してそこからブレンドをできるようにする。(イメージ通りにできていたらいい感じになるはず)</t>
-        <rPh sb="6" eb="8">
-          <t>トチュウ</t>
-        </rPh>
-        <rPh sb="15" eb="16">
-          <t>キ</t>
-        </rPh>
-        <rPh sb="17" eb="18">
-          <t>カ</t>
-        </rPh>
-        <rPh sb="21" eb="23">
-          <t>バアイ</t>
-        </rPh>
-        <rPh sb="31" eb="33">
-          <t>ホゾン</t>
-        </rPh>
-        <rPh sb="58" eb="59">
-          <t>ドオ</t>
-        </rPh>
-        <rPh sb="69" eb="70">
-          <t>カン</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="16" sId="1" ref="A3:XFD3" action="insertRow"/>
-  <rcc rId="17" sId="1">
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>咆哮された時にコントローラー振動するが、ここでカウンターのコントローラー振動はモンハンでどうなっているか確認する</t>
+          <t>ジ</t>
+        </rPh>
+        <rPh sb="14" eb="19">
+          <t>ハントウメイビョウガ</t>
+        </rPh>
+        <rPh sb="23" eb="27">
+          <t>ベットビョウガ</t>
+        </rPh>
+        <rPh sb="34" eb="35">
+          <t>ヨウ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>カンスウ</t>
+        </rPh>
+        <rPh sb="49" eb="50">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B60"/>
+  </rcc>
+  <rcc rId="156" sId="1">
+    <oc r="B61" t="inlineStr">
+      <is>
+        <t>咆哮の処理を作る</t>
         <rPh sb="0" eb="2">
           <t>ホウコウ</t>
         </rPh>
-        <rPh sb="5" eb="6">
-          <t>トキ</t>
-        </rPh>
-        <rPh sb="14" eb="16">
-          <t>シンドウ</t>
-        </rPh>
-        <rPh sb="36" eb="38">
-          <t>シンドウ</t>
-        </rPh>
-        <rPh sb="52" eb="54">
-          <t>カクニン</t>
-        </rPh>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="18" sId="1" ref="A6:XFD6" action="insertRow"/>
-  <rm rId="19" sheetId="1" source="A7:B7" destination="A6:B6" sourceSheetId="1">
-    <rfmt sheetId="1" sqref="A6" start="0" length="0">
+        <rPh sb="3" eb="5">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="6" eb="7">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B61"/>
+  </rcc>
+  <rcc rId="157" sId="1">
+    <oc r="A61" t="inlineStr">
+      <is>
+        <t>〇</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="A61"/>
+  </rcc>
+  <rcc rId="158" sId="1">
+    <oc r="A62" t="inlineStr">
+      <is>
+        <t>〇</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="A62"/>
+  </rcc>
+  <rcc rId="159" sId="1">
+    <oc r="B62" t="inlineStr">
+      <is>
+        <t>カウンター処理の基礎を作る</t>
+        <rPh sb="5" eb="7">
+          <t>ショリ</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>キソ</t>
+        </rPh>
+        <rPh sb="11" eb="12">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B62"/>
+  </rcc>
+  <rcc rId="160" sId="1">
+    <oc r="B63" t="inlineStr">
+      <is>
+        <t>skyMapを実装する</t>
+        <rPh sb="7" eb="9">
+          <t>ジッソウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B63" t="inlineStr">
+      <is>
+        <t>SkyMap</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="1">
+    <oc r="B67" t="inlineStr">
+      <is>
+        <t>ステージからキャラクターがはみ出さないようにoffsetを作って制御する</t>
+        <rPh sb="15" eb="16">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="29" eb="30">
+          <t>ツク</t>
+        </rPh>
+        <rPh sb="32" eb="34">
+          <t>セイギョ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B67"/>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B43" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="162" sId="1">
+    <oc r="B43" t="inlineStr">
+      <is>
+        <t>UI全般考えて作る。</t>
+        <rPh sb="2" eb="4">
+          <t>ゼンパン</t>
+        </rPh>
+        <rPh sb="4" eb="5">
+          <t>カンガ</t>
+        </rPh>
+        <rPh sb="7" eb="8">
+          <t>ツク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>ステージからキャラクターがはみ出さないようにoffsetをつかって制御する</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="1">
+    <oc r="A67" t="inlineStr">
+      <is>
+        <t>〇</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="A67"/>
+  </rcc>
+  <rrc rId="164" sId="1" ref="A67:XFD67" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A67:XFD67" start="0" length="0"/>
+    <rfmt sheetId="1" sqref="A67" start="0" length="0">
       <dxf>
         <fill>
           <patternFill patternType="solid">
@@ -5153,7 +6018,7 @@
         </border>
       </dxf>
     </rfmt>
-    <rfmt sheetId="1" sqref="B6" start="0" length="0">
+    <rfmt sheetId="1" sqref="B67" start="0" length="0">
       <dxf>
         <fill>
           <patternFill patternType="solid">
@@ -5176,6 +6041,292 @@
         </border>
       </dxf>
     </rfmt>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="165" sId="1">
+    <oc r="C37" t="inlineStr">
+      <is>
+        <t>モンハンで先行入力はどうしているのか確認する</t>
+        <rPh sb="5" eb="9">
+          <t>センコウニュウリョク</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>カクニン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="C37"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="166" sheetId="3" name="[やることリスト.xlsx]Player AI" sheetPosition="2"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+  <rsnm rId="167" sheetId="1" oldName="[やることリスト.xlsx]Sheet1" newName="[やることリスト.xlsx]TODO"/>
+  <rsnm rId="168" sheetId="2" oldName="[やることリスト.xlsx]AI" newName="[やることリスト.xlsx]Dragon AI"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="1">
+    <oc r="C8" t="inlineStr">
+      <is>
+        <t>kottikarakaku</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="C8"/>
+  </rcc>
+  <rrc rId="3" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="4" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>コントローラー振動更新関数の部分を色々いじっていい感じにする。</t>
+        <rPh sb="7" eb="9">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="9" eb="13">
+          <t>コウシンカンスウ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>ブブン</t>
+        </rPh>
+        <rPh sb="17" eb="19">
+          <t>イロイロ</t>
+        </rPh>
+        <rPh sb="25" eb="26">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="5" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="6" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>通常攻撃の時にもカウンターの受付を行う。</t>
+        <rPh sb="0" eb="4">
+          <t>ツウジョウコウゲキ</t>
+        </rPh>
+        <rPh sb="5" eb="6">
+          <t>トキ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>ウケツケ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>オコナ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>モンハンで先行入力はどうしているのか確認する</t>
+        <rPh sb="5" eb="9">
+          <t>センコウニュウリョク</t>
+        </rPh>
+        <rPh sb="18" eb="20">
+          <t>カクニン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="8" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="9" sId="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>通常攻撃時も少し前に踏み込むようにする</t>
+        <rPh sb="0" eb="5">
+          <t>ツウジョウコウゲキジ</t>
+        </rPh>
+        <rPh sb="6" eb="7">
+          <t>スコ</t>
+        </rPh>
+        <rPh sb="8" eb="9">
+          <t>マエ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>フ</t>
+        </rPh>
+        <rPh sb="12" eb="13">
+          <t>コ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="10" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rfmt sheetId="1" sqref="A7" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+        <family val="3"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="11" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rrc rId="12" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="13" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>モーションの途中でモーションのスピードを変えれるようにする。</t>
+        <rPh sb="6" eb="8">
+          <t>トチュウ</t>
+        </rPh>
+        <rPh sb="20" eb="21">
+          <t>カ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="14" sId="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="15" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>モーションの途中でモーションが切り替わった場合。そのフレームを保存してそこからブレンドをできるようにする。(イメージ通りにできていたらいい感じになるはず)</t>
+        <rPh sb="6" eb="8">
+          <t>トチュウ</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>キ</t>
+        </rPh>
+        <rPh sb="17" eb="18">
+          <t>カ</t>
+        </rPh>
+        <rPh sb="21" eb="23">
+          <t>バアイ</t>
+        </rPh>
+        <rPh sb="31" eb="33">
+          <t>ホゾン</t>
+        </rPh>
+        <rPh sb="58" eb="59">
+          <t>ドオ</t>
+        </rPh>
+        <rPh sb="69" eb="70">
+          <t>カン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="16" sId="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="17" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>咆哮された時にコントローラー振動するが、ここでカウンターのコントローラー振動はモンハンでどうなっているか確認する</t>
+        <rPh sb="0" eb="2">
+          <t>ホウコウ</t>
+        </rPh>
+        <rPh sb="5" eb="6">
+          <t>トキ</t>
+        </rPh>
+        <rPh sb="14" eb="16">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="36" eb="38">
+          <t>シンドウ</t>
+        </rPh>
+        <rPh sb="52" eb="54">
+          <t>カクニン</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="18" sId="1" ref="A6:XFD6" action="insertRow"/>
+  <rm rId="19" sheetId="1" source="A7:B7" destination="A6:B6" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="A6" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="4" tint="0.79998168889431442"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="center" vertical="top"/>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="B6" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor theme="4" tint="0.79998168889431442"/>
+          </patternFill>
+        </fill>
+        <border outline="0">
+          <left style="thin">
+            <color indexed="64"/>
+          </left>
+          <right style="thin">
+            <color indexed="64"/>
+          </right>
+          <top style="thin">
+            <color indexed="64"/>
+          </top>
+          <bottom style="thin">
+            <color indexed="64"/>
+          </bottom>
+        </border>
+      </dxf>
+    </rfmt>
   </rm>
   <rrc rId="20" sId="1" eol="1" ref="A7:XFD7" action="insertRow"/>
   <rcc rId="21" sId="1">
@@ -5200,7 +6351,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -5521,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5534,7 +6685,7 @@
     <col min="3" max="3" width="82.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5542,251 +6693,266 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>40</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
-        <v>43</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
-        <v>29</v>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
-        <v>30</v>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
-        <v>10</v>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="4" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>13</v>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>14</v>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>16</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C37" sqref="C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:B1 A6:B11 A13:B25 A26 A27:B1048576">
+  <conditionalFormatting sqref="A1:B1 A27:B32 A34:B46 A47 A48:B1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>
@@ -5799,8 +6965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8F8ED4-55A2-4E65-B40C-750F5308C5E3}">
   <dimension ref="A3:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5814,18 +6980,18 @@
   <sheetData>
     <row r="3" spans="4:19" x14ac:dyDescent="0.4">
       <c r="D3" s="22" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="4:19" x14ac:dyDescent="0.4">
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5853,19 +7019,19 @@
     </row>
     <row r="9" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="13" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="19" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="19" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5894,20 +7060,20 @@
     </row>
     <row r="12" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G12" s="13" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="19" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5915,10 +7081,10 @@
       <c r="M13" s="21"/>
       <c r="O13" s="21"/>
       <c r="Q13" s="33" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5936,20 +7102,20 @@
     </row>
     <row r="15" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G15" s="13" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M15" s="21"/>
       <c r="O15" s="13" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5957,14 +7123,14 @@
     </row>
     <row r="17" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I17" s="33" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="M17" s="21"/>
       <c r="O17" s="33" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5980,25 +7146,46 @@
     </row>
     <row r="19" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I19" s="13" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F29" sqref="F29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F825FA-7583-46AE-9A2F-4154AE2C6294}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
+      <selection activeCell="E2" sqref="E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EAA16A68-A2EA-4AF3-B57B-FC339F87EA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{74F0EE08-E87F-4403-92B6-2B139B3BEB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="2220036 - 個人用ビュー" guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
+    <customWorkbookView name="2220036 - 個人用ビュー" guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>やったか</t>
     <phoneticPr fontId="1"/>
@@ -709,6 +709,35 @@
   </si>
   <si>
     <t>ステージからキャラクターがはみ出さないようにoffsetをつかって制御する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃からの回避時モーションブレンドをしたいけど、入力のストレスもなくしたい</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションの移動値をなくすために、GltfModelのCumulateTransformsで無理やりなことしてるので修正したい</t>
+    <rPh sb="6" eb="9">
+      <t>イドウチ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1083,7 +1112,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{06F76660-3482-48CB-AAA5-FBDE4EAA43B4}" diskRevisions="1" revisionId="168" version="24">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7AADF28-F65A-4E67-81AF-8E04B4C6B298}" diskRevisions="1" revisionId="173" version="26">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1219,6 +1248,20 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{75733200-32B9-4614-BCBE-3586D4EA111B}" dateTime="2024-06-21T10:48:50" maxSheetId="4" userName="2220036" r:id="rId25" minRId="169" maxRId="171">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7AADF28-F65A-4E67-81AF-8E04B4C6B298}" dateTime="2024-06-23T20:09:10" maxSheetId="4" userName="2220036" r:id="rId26" minRId="172" maxRId="173">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -6075,6 +6118,60 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="169" sId="1" ref="A10:XFD10" action="insertRow"/>
+  <rrc rId="170" sId="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="171" sId="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>攻撃からの回避時モーションブレンドをしたいけど、入力のストレスもなくしたい</t>
+        <rPh sb="0" eb="2">
+          <t>コウゲキ</t>
+        </rPh>
+        <rPh sb="5" eb="7">
+          <t>カイヒ</t>
+        </rPh>
+        <rPh sb="7" eb="8">
+          <t>ジ</t>
+        </rPh>
+        <rPh sb="24" eb="26">
+          <t>ニュウリョク</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="172" sId="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="173" sId="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>モーションの移動値をなくすために、GltfModelのCumulateTransformsで無理やりなことしてるので修正したい</t>
+        <rPh sb="6" eb="9">
+          <t>イドウチ</t>
+        </rPh>
+        <rPh sb="46" eb="48">
+          <t>ムリ</t>
+        </rPh>
+        <rPh sb="58" eb="60">
+          <t>シュウセイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="2" sId="1">
@@ -6351,8 +6448,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{B7AADF28-F65A-4E67-81AF-8E04B4C6B298}" name="2220036" id="-575645917" dateTime="2024-06-23T20:08:08"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6672,10 +6771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6735,189 +6834,175 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
-        <v>67</v>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
+      <c r="B38" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B39" s="4" t="s">
-        <v>73</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B43" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="4" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="4" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="4" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="4" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="4" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="4" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B59" s="4" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -6925,7 +7010,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -6933,7 +7018,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -6941,18 +7026,42 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:B1 A27:B32 A34:B46 A47 A48:B1048576">
+  <conditionalFormatting sqref="A1:B1 A30:B35 A37:B49 A50 A51:B1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>
@@ -6966,7 +7075,7 @@
   <dimension ref="A3:S19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -6449,9 +6449,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B7AADF28-F65A-4E67-81AF-8E04B4C6B298}" name="2220036" id="-575645917" dateTime="2024-06-23T20:08:08"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{74F0EE08-E87F-4403-92B6-2B139B3BEB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1D600BA6-A855-4468-AF8E-D80BAC6D9CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MoveRoar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ComboSlam</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -737,6 +733,25 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し出し判定用の球体をふたつのべくとるかんでオフセット設定するようにする</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンテイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1112,7 +1127,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7AADF28-F65A-4E67-81AF-8E04B4C6B298}" diskRevisions="1" revisionId="173" version="26">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E3FB64EF-8B7B-4B82-8FF7-A5C06D8FAADE}" diskRevisions="1" revisionId="177" version="28">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1262,6 +1277,20 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{5DC087FB-B20E-432F-BB66-8D3E62A961A1}" dateTime="2024-06-24T12:21:42" maxSheetId="4" userName="2220036" r:id="rId27" minRId="174">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E3FB64EF-8B7B-4B82-8FF7-A5C06D8FAADE}" dateTime="2024-06-24T18:29:31" maxSheetId="4" userName="2220036" r:id="rId28" minRId="175" maxRId="177">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -6169,6 +6198,50 @@
   </rcc>
   <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
   <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="174" sId="2">
+    <oc r="G15" t="inlineStr">
+      <is>
+        <t>MoveRoar</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </oc>
+    <nc r="G15"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="175" sId="1" ref="A10:XFD10" action="insertRow"/>
+  <rrc rId="176" sId="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="177" sId="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>押し出し判定用の球体をふたつのべくとるかんでオフセット設定するようにする</t>
+        <rPh sb="0" eb="1">
+          <t>オ</t>
+        </rPh>
+        <rPh sb="2" eb="3">
+          <t>ダ</t>
+        </rPh>
+        <rPh sb="4" eb="7">
+          <t>ハンテイヨウ</t>
+        </rPh>
+        <rPh sb="8" eb="10">
+          <t>キュウタイ</t>
+        </rPh>
+        <rPh sb="27" eb="29">
+          <t>セッテイ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -6769,10 +6842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6802,32 +6875,32 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -6835,188 +6908,177 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="4" t="s">
-        <v>68</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="5"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="4" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B57" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B62" s="4" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -7024,7 +7086,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -7032,7 +7094,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -7040,7 +7102,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -7048,6 +7110,22 @@
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7059,7 +7137,7 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:B1 A30:B35 A37:B49 A50 A51:B1048576">
+  <conditionalFormatting sqref="A1:B1 A32:B37 A39:B51 A52 A53:B1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>
@@ -7073,7 +7151,7 @@
   <dimension ref="A3:S19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7188,10 +7266,10 @@
       <c r="M13" s="21"/>
       <c r="O13" s="21"/>
       <c r="Q13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="33" t="s">
         <v>44</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7208,9 +7286,7 @@
       <c r="S14" s="25"/>
     </row>
     <row r="15" spans="4:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G15" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="G15" s="13"/>
       <c r="I15" s="13" t="s">
         <v>39</v>
       </c>
@@ -7230,14 +7306,14 @@
     </row>
     <row r="17" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>41</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>42</v>
       </c>
       <c r="M17" s="21"/>
       <c r="O17" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="9:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/Document/やることリスト.xlsx
+++ b/Document/やることリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220036\Desktop\Library_ver4.0\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1D600BA6-A855-4468-AF8E-D80BAC6D9CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{60223531-B357-4A82-B9EC-3C6F3EFD900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB00DED2-AB7F-4E00-9020-F99C4C4B4AF5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>やったか</t>
     <phoneticPr fontId="1"/>
@@ -752,6 +752,28 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンの突進攻撃の際、前足が埋まってしまうので、IK入れて対応したい</t>
+    <rPh sb="5" eb="9">
+      <t>トッシンコウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マエアシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1127,7 +1149,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E3FB64EF-8B7B-4B82-8FF7-A5C06D8FAADE}" diskRevisions="1" revisionId="177" version="28">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A57FA7D6-D4AC-46F1-A661-7135B1F5A1D1}" diskRevisions="1" revisionId="179" version="29">
   <header guid="{35036EEA-03A5-4DA2-8B62-137E410852C6}" dateTime="2024-06-11T23:43:59" maxSheetId="2" userName="2220036" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1291,6 +1313,13 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{A57FA7D6-D4AC-46F1-A661-7135B1F5A1D1}" dateTime="2024-07-03T10:35:09" maxSheetId="4" userName="2220036" r:id="rId29" minRId="178" maxRId="179">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -6242,6 +6271,40 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="178" sId="1" ref="A30:XFD30" action="insertRow"/>
+  <rcc rId="179" sId="1">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>ドラゴンの突進攻撃の際、前足が埋まってしまうので、IK入れて対応したい</t>
+        <rPh sb="5" eb="9">
+          <t>トッシンコウゲキ</t>
+        </rPh>
+        <rPh sb="10" eb="11">
+          <t>サイ</t>
+        </rPh>
+        <rPh sb="12" eb="14">
+          <t>マエアシ</t>
+        </rPh>
+        <rPh sb="15" eb="16">
+          <t>ウ</t>
+        </rPh>
+        <rPh sb="27" eb="28">
+          <t>イ</t>
+        </rPh>
+        <rPh sb="30" eb="32">
+          <t>タイオウ</t>
+        </rPh>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="delete"/>
+  <rcv guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" action="add"/>
 </revisions>
 </file>
 
@@ -6842,10 +6905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E3C60C-AB92-4AC4-B152-AC20DD3A421D}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6988,105 +7051,102 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B42" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="5"/>
+      <c r="B43" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B46" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="4" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B63" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -7094,7 +7154,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -7102,7 +7162,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -7110,7 +7170,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -7118,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -7126,18 +7186,26 @@
         <v>5</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}">
-      <selection activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{89AA2B94-0E28-4588-9BB9-0FC61B8F5F0D}" topLeftCell="A13">
+      <selection activeCell="B31" sqref="B31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:B1 A32:B37 A39:B51 A52 A53:B1048576">
+  <conditionalFormatting sqref="A1:B1 A33:B38 A40:B52 A53 A54:B1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",A1)))</formula>
     </cfRule>
@@ -7151,7 +7219,7 @@
   <dimension ref="A3:S19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
